--- a/which_examples_work.xlsx
+++ b/which_examples_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{5245DEDF-2FC7-4144-87E7-712D38BDC69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E4EA55-9DF6-BB41-895E-B37A7DDE24DE}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{5245DEDF-2FC7-4144-87E7-712D38BDC69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0A94FC-2CD1-DD4C-8284-14578711A993}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{6282EDC2-FEBB-DE48-9C53-852EFE89195A}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15840" xr2:uid="{6282EDC2-FEBB-DE48-9C53-852EFE89195A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,14 +286,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,8 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D61F7E3-D864-074F-87CF-C62DBC18661B}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
